--- a/Related Documents/Linking of master pages-19-12-2012.xlsx
+++ b/Related Documents/Linking of master pages-19-12-2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Registers Linking with Masters" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Appeal Register</t>
   </si>
   <si>
-    <t>Sunavani Register</t>
-  </si>
-  <si>
     <t>Establishment Department</t>
   </si>
   <si>
@@ -175,13 +172,16 @@
   </si>
   <si>
     <t>Government Document</t>
+  </si>
+  <si>
+    <t>Sunavni Register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,12 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,12 +269,6 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -282,20 +282,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,777 +618,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="M1" s="7" t="s">
-        <v>41</v>
+      <c r="H1" s="21"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="M1" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="7"/>
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="16"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="15"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="15"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="15"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="15"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="G15" s="6" t="s">
+      <c r="G17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="6" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="3"/>
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" s="13" t="s">
+      <c r="J21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="M22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="M26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="G30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="M30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="G22" s="11" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="G34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="M22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="11" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="G26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="M26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="G30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="M30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="G34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="G38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="16"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="16"/>
+      <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="16"/>
+      <c r="G41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="13"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="G43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="15"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="12"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="3"/>
+      <c r="G46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="G46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="9" t="s">
+      <c r="E48" s="3"/>
+      <c r="G48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="G48" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="12"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G49" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K49" s="12"/>
+      <c r="G49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="12"/>
-      <c r="K50" s="12"/>
+      <c r="I50" s="10"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="M51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="M51" s="14" t="s">
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D52" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N51" s="14"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D52" s="9" t="s">
+      <c r="E52" s="7"/>
+      <c r="M52" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="M52" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N52" s="14"/>
+      <c r="N52" s="11"/>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
